--- a/Research/Diagrams/Stats.xlsx
+++ b/Research/Diagrams/Stats.xlsx
@@ -9,50 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8115" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8115"/>
   </bookViews>
   <sheets>
     <sheet name="Bar chart" sheetId="1" r:id="rId1"/>
     <sheet name="Pi chart" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Pi chart'!$A$2</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Pi chart'!$A$3</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'Pi chart'!$A$3</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'Pi chart'!$A$4</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">'Pi chart'!$A$5</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'Pi chart'!$B$1:$E$1</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">'Pi chart'!$B$2:$E$2</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">'Pi chart'!$B$3:$E$3</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">'Pi chart'!$B$4:$E$4</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">'Pi chart'!$B$5:$E$5</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">'Pi chart'!$A$2</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">'Pi chart'!$A$3</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Pi chart'!$A$4</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">'Pi chart'!$A$4</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">'Pi chart'!$A$5</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">'Pi chart'!$B$1:$E$1</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">'Pi chart'!$B$2:$E$2</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">'Pi chart'!$B$3:$E$3</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">'Pi chart'!$B$4:$E$4</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">'Pi chart'!$B$5:$E$5</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">'Pi chart'!$A$2</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">'Pi chart'!$A$3</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">'Pi chart'!$A$4</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Pi chart'!$A$5</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">'Pi chart'!$A$5</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">'Pi chart'!$B$1:$E$1</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">'Pi chart'!$B$2:$E$2</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">'Pi chart'!$B$3:$E$3</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">'Pi chart'!$B$4:$E$4</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">'Pi chart'!$B$5:$E$5</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Pi chart'!$B$1:$E$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Pi chart'!$B$2:$E$2</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Pi chart'!$B$3:$E$3</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'Pi chart'!$B$4:$E$4</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'Pi chart'!$B$5:$E$5</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'Pi chart'!$A$2</definedName>
-  </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1827,6 +1789,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-2BE0-43F5-9B38-F02F9AE07C10}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1850,6 +1817,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-2BE0-43F5-9B38-F02F9AE07C10}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1873,6 +1845,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-2BE0-43F5-9B38-F02F9AE07C10}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -1896,6 +1873,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-2BE0-43F5-9B38-F02F9AE07C10}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -2170,6 +2152,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-082A-462E-A8C6-6B4F809A8EE4}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -2193,6 +2180,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-082A-462E-A8C6-6B4F809A8EE4}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -2216,6 +2208,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-082A-462E-A8C6-6B4F809A8EE4}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -2239,6 +2236,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-082A-462E-A8C6-6B4F809A8EE4}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -2513,6 +2515,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-BD02-4309-A2CB-6141A4190104}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -2536,6 +2543,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-BD02-4309-A2CB-6141A4190104}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -2559,6 +2571,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-BD02-4309-A2CB-6141A4190104}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -2582,6 +2599,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-BD02-4309-A2CB-6141A4190104}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -2856,6 +2878,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-1FB9-4422-809A-0DDFE5D69B6B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -2879,6 +2906,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-1FB9-4422-809A-0DDFE5D69B6B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -2902,6 +2934,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-1FB9-4422-809A-0DDFE5D69B6B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -2925,6 +2962,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-1FB9-4422-809A-0DDFE5D69B6B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -6952,7 +6994,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
@@ -7057,7 +7099,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>

--- a/Research/Diagrams/Stats.xlsx
+++ b/Research/Diagrams/Stats.xlsx
@@ -319,16 +319,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>8028</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>3537</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -476,16 +476,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>67</c:v>
+                  <c:v>7998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32</c:v>
+                  <c:v>3530</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>68</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -633,16 +633,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>98</c:v>
+                  <c:v>5515</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13</c:v>
+                  <c:v>2303</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>54</c:v>
+                  <c:v>1298</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23</c:v>
+                  <c:v>961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -790,16 +790,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>65</c:v>
+                  <c:v>3437</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>3601</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1145,16 +1145,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>8028</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>67</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>98</c:v>
+                  <c:v>3537</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>65</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1273,16 +1273,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>7998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13</c:v>
+                  <c:v>3530</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1401,16 +1401,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>5515</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>32</c:v>
+                  <c:v>2303</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>54</c:v>
+                  <c:v>1298</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1529,16 +1529,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>3437</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>68</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23</c:v>
+                  <c:v>3601</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1959,16 +1959,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>8028</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>67</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>98</c:v>
+                  <c:v>3537</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>65</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2322,16 +2322,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>7998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13</c:v>
+                  <c:v>3530</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2685,16 +2685,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>5515</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>32</c:v>
+                  <c:v>2303</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>54</c:v>
+                  <c:v>1298</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3048,16 +3048,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>3437</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>68</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23</c:v>
+                  <c:v>3601</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6994,8 +6994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7025,16 +7025,16 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>8028</v>
       </c>
       <c r="C2">
-        <v>67</v>
+        <v>7998</v>
       </c>
       <c r="D2">
-        <v>98</v>
+        <v>5515</v>
       </c>
       <c r="E2">
-        <v>65</v>
+        <v>3437</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -7042,16 +7042,16 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>64</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>2303</v>
       </c>
       <c r="E3">
-        <v>45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -7059,16 +7059,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>3537</v>
       </c>
       <c r="C4">
-        <v>32</v>
+        <v>3530</v>
       </c>
       <c r="D4">
-        <v>54</v>
+        <v>1298</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>3601</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -7076,16 +7076,16 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="C5">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D5">
-        <v>23</v>
+        <v>961</v>
       </c>
       <c r="E5">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -7099,8 +7099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7130,16 +7130,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>8028</v>
       </c>
       <c r="C2">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D2">
-        <v>98</v>
+        <v>3537</v>
       </c>
       <c r="E2">
-        <v>65</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -7147,16 +7147,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>7998</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>3530</v>
       </c>
       <c r="E3">
-        <v>6</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -7164,16 +7164,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>5515</v>
       </c>
       <c r="C4">
-        <v>32</v>
+        <v>2303</v>
       </c>
       <c r="D4">
-        <v>54</v>
+        <v>1298</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>961</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -7181,16 +7181,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6</v>
+        <v>3437</v>
       </c>
       <c r="C5">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>23</v>
+        <v>3601</v>
       </c>
       <c r="E5">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
